--- a/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
+++ b/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Carbon Dioxide Model or Driving Var</t>
   </si>
   <si>
-    <t>Organic Matter model or Driving Vars.</t>
-  </si>
-  <si>
     <t>Oxygen State Variable or Driving Var</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>Erosion / depositin rates, soft requirement</t>
+  </si>
+  <si>
+    <t>AQTNutrientsModel.CheckDataRequirements</t>
+  </si>
+  <si>
+    <t>Dissolved Org Matter or Driving Vars., soft</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,7 +719,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,7 +741,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,10 +855,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,26 +888,24 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
@@ -912,7 +913,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -923,10 +924,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
@@ -934,10 +935,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
@@ -945,7 +946,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -953,10 +954,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
+++ b/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
@@ -86,9 +86,6 @@
     <t>Organic Matter, soft requirement.</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Animals and Plants, soft requirement</t>
   </si>
   <si>
@@ -125,13 +122,16 @@
     <t>Oxygen model or Driving Var.</t>
   </si>
   <si>
-    <t>Erosion / depositin rates, soft requirement</t>
-  </si>
-  <si>
     <t>AQTNutrientsModel.CheckDataRequirements</t>
   </si>
   <si>
     <t>Dissolved Org Matter or Driving Vars., soft</t>
+  </si>
+  <si>
+    <t>AQTOrganicMatter.CheckDataRequirements</t>
+  </si>
+  <si>
+    <t>Erosion / deposition rates, soft requirement</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,10 +792,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -830,134 +830,134 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
+++ b/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
@@ -44,9 +44,6 @@
     <t>Valid JSON with type bindings</t>
   </si>
   <si>
-    <t>Non-Zero State Variables in Simulation</t>
-  </si>
-  <si>
     <t>Valid PSETUP inputs</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Erosion / deposition rates, soft requirement</t>
+  </si>
+  <si>
+    <t>One or more State Variables in Simulation</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +606,7 @@
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,10 +669,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,74 +702,74 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -778,50 +778,50 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,134 +830,134 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
+++ b/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Model</t>
   </si>
@@ -132,6 +132,42 @@
   </si>
   <si>
     <t>One or more State Variables in Simulation</t>
+  </si>
+  <si>
+    <t>Chemical Fate Model</t>
+  </si>
+  <si>
+    <t>Diagenesis Model</t>
+  </si>
+  <si>
+    <t>Water Column Nutrients</t>
+  </si>
+  <si>
+    <t>AQTDiagenesisModel.CheckDataRequirements</t>
+  </si>
+  <si>
+    <t>POC, PON, POP state variables G1 to G3</t>
+  </si>
+  <si>
+    <t>Phosphate Ammonia Nitrate L1 and L2</t>
+  </si>
+  <si>
+    <t>Detritivores eating sediment bed (soft)</t>
+  </si>
+  <si>
+    <t>Animals Plants, OM depositing to sediment bed (soft requirement)</t>
+  </si>
+  <si>
+    <t>AQTChemicalModel.CheckDataRequirements</t>
+  </si>
+  <si>
+    <t>Light loadings</t>
+  </si>
+  <si>
+    <t>Animals Plants, OM sorption and desorption (soft requirement)</t>
+  </si>
+  <si>
+    <t>Chemical in water column state var (TToxics)</t>
   </si>
 </sst>
 </file>
@@ -162,12 +198,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,12 +224,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +604,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,28 +636,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -749,70 +793,72 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -821,30 +867,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>34</v>
@@ -855,29 +899,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,38 +929,38 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>36</v>
@@ -927,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>36</v>
@@ -938,18 +982,21 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>22</v>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,7 +1004,173 @@
         <v>30</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
+++ b/Data.Simulate.AQUATOX/DOCS/HMS_AQUATOX_Models_and_Requirements.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Valid Types" sheetId="3" r:id="rId3"/>
+    <sheet name="Enumerated Variables" sheetId="4" r:id="rId4"/>
+    <sheet name="State Variable Parameters" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="435">
   <si>
     <t>Model</t>
   </si>
@@ -168,13 +171,1419 @@
   </si>
   <si>
     <t>Chemical in water column state var (TToxics)</t>
+  </si>
+  <si>
+    <t>Chemical Fate</t>
+  </si>
+  <si>
+    <t>AQUATOXChemicalModel.docx</t>
+  </si>
+  <si>
+    <t>Chemicals.AQUATOX.UnitTests</t>
+  </si>
+  <si>
+    <t>Chemicals.AQUATOX.xml</t>
+  </si>
+  <si>
+    <t>Diagenesis</t>
+  </si>
+  <si>
+    <t>Diagenesis.AQUATOX.xml</t>
+  </si>
+  <si>
+    <t>Diagenesis.AQUATOX.UnitTests</t>
+  </si>
+  <si>
+    <t>AQUATOX_Diagenesis.docx</t>
+  </si>
+  <si>
+    <t>Nutrients</t>
+  </si>
+  <si>
+    <t>Nutrients.AQUATOX.xml</t>
+  </si>
+  <si>
+    <t>Nutrients.AQUATOX.UnitTests</t>
+  </si>
+  <si>
+    <t>AQUATOXNutrientModel.docx</t>
+  </si>
+  <si>
+    <t>OrganicMatter</t>
+  </si>
+  <si>
+    <t>Stream.Hydrology</t>
+  </si>
+  <si>
+    <t>Stream.Hydrology.AQUATOX.xml</t>
+  </si>
+  <si>
+    <t>OrganicMatter.AQUATOX.xml</t>
+  </si>
+  <si>
+    <t>OrganicMatter.AQUATOX.UnitTests</t>
+  </si>
+  <si>
+    <t>Stream.Hydrology.AQUATOX.UnitTests</t>
+  </si>
+  <si>
+    <t>AQUATOXVolumeModel.docx</t>
+  </si>
+  <si>
+    <t>AQUATOXOrganicMatterModel.docx</t>
+  </si>
+  <si>
+    <t>TDissRefrDetr</t>
+  </si>
+  <si>
+    <t>TVolume</t>
+  </si>
+  <si>
+    <t>AQUATOX time-series output</t>
+  </si>
+  <si>
+    <t>Input data for "suspended and dissolved" organic matter</t>
+  </si>
+  <si>
+    <t>Primary AQUATOX object</t>
+  </si>
+  <si>
+    <t>Object Location</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Main JSON object</t>
+  </si>
+  <si>
+    <t>Diagenesis_Params variable in AQUATOXSegment</t>
+  </si>
+  <si>
+    <t>InputRecord variable in TDissRefrDetr State Variable</t>
+  </si>
+  <si>
+    <t>AQUATOXSegment</t>
+  </si>
+  <si>
+    <t>TCO2Obj</t>
+  </si>
+  <si>
+    <t>TLight</t>
+  </si>
+  <si>
+    <t>TNH4Obj</t>
+  </si>
+  <si>
+    <t>TNO3Obj</t>
+  </si>
+  <si>
+    <t>TO2Obj</t>
+  </si>
+  <si>
+    <t>TpHObj</t>
+  </si>
+  <si>
+    <t>TPO4Obj</t>
+  </si>
+  <si>
+    <t>TToxics</t>
+  </si>
+  <si>
+    <t>TWindLoading</t>
+  </si>
+  <si>
+    <t>All Simulations</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide in mg/L</t>
+  </si>
+  <si>
+    <t>Dissolved Labile Detritus in mg/L</t>
+  </si>
+  <si>
+    <t>Dissolved Refractory Detritus in mg/L</t>
+  </si>
+  <si>
+    <t>Light input at water surface in Ly/d</t>
+  </si>
+  <si>
+    <t>Chemcal Simulations</t>
+  </si>
+  <si>
+    <t>Location variable in AQUATOXSegment</t>
+  </si>
+  <si>
+    <t>ChemRec variable in AQUATOXSegment</t>
+  </si>
+  <si>
+    <t>Diagenesis Simulations</t>
+  </si>
+  <si>
+    <t>Required parameters for diagenesis model</t>
+  </si>
+  <si>
+    <t>Required parameters for chemical model</t>
+  </si>
+  <si>
+    <t>External Loadings and time series for state variable</t>
+  </si>
+  <si>
+    <t>All State Variables</t>
+  </si>
+  <si>
+    <t>Remin variable in AQUATOXSegment</t>
+  </si>
+  <si>
+    <t>Psetup variable in AQUATOXSegment</t>
+  </si>
+  <si>
+    <t>Simulation setup such as start and end date</t>
+  </si>
+  <si>
+    <t>Required site parameters</t>
+  </si>
+  <si>
+    <t>SV with time-series input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ChemicalRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DetritalInputRecordType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Diagenesis_Rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TParameter</t>
+  </si>
+  <si>
+    <t>Parameters about organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ReminRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TAQTSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Setup_Record</t>
+  </si>
+  <si>
+    <t>"ITSI" state variable in Loadings Record</t>
+  </si>
+  <si>
+    <t>Time-series loading input, classic AQUATOX format</t>
+  </si>
+  <si>
+    <t>Time-series loading input, data from HMS models</t>
+  </si>
+  <si>
+    <t>"InputTimeSeries" in TimeSeriesInput</t>
+  </si>
+  <si>
+    <t>SV with HMS inputs</t>
+  </si>
+  <si>
+    <t>Each parameter within the Diagenesis_Rec</t>
+  </si>
+  <si>
+    <t>value, symbol, name, comment, units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  TStateVariable</t>
+  </si>
+  <si>
+    <t>LoadsRec variable in TStateVariable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoadingsRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      TLoadings</t>
+  </si>
+  <si>
+    <t>Loadings or Alt_Loadings[] in LoadingsRecord</t>
+  </si>
+  <si>
+    <t>Constant loading or time series external loading</t>
+  </si>
+  <si>
+    <t>list variable in Tloadings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SortedList&lt;DateTime, double&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TimeSeriesInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          TimeSeriesOutput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AQUATOXTSOutput</t>
+  </si>
+  <si>
+    <t>Required for</t>
+  </si>
+  <si>
+    <t>n/a; Holds Output</t>
+  </si>
+  <si>
+    <t>Locale variable in TAQTSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SiteRecord</t>
+  </si>
+  <si>
+    <t>Required site parameters and data</t>
+  </si>
+  <si>
+    <t>State Variable in "SV" array</t>
+  </si>
+  <si>
+    <t>Within "SV" array in AQUATOXSegment</t>
+  </si>
+  <si>
+    <t>Base object for all state variables</t>
+  </si>
+  <si>
+    <t>Chemicals / Plants</t>
+  </si>
+  <si>
+    <t>Nutrients, pH, Chemicals</t>
+  </si>
+  <si>
+    <t>Valid Type Name</t>
+  </si>
+  <si>
+    <t>Diagenesis, optional</t>
+  </si>
+  <si>
+    <t>Organic Matter</t>
+  </si>
+  <si>
+    <t>Temperature of water column in deg. C</t>
+  </si>
+  <si>
+    <t>Freely-dissolved chemical in water in ug/L</t>
+  </si>
+  <si>
+    <t>Chemical Simulat8ions</t>
+  </si>
+  <si>
+    <t>Water volume of site in cubic meters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind loading of site in m/s at a height of 10 m </t>
+  </si>
+  <si>
+    <t>Suspended Particulate Refractory Detritus in mg/L</t>
+  </si>
+  <si>
+    <t>Suspended Particulate Labile Detritus in mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TCO2Obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TCOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TNH4Obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TNO3Obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TO2Obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TpHObj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TPO4Obj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TVolume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TWindLoading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TDissLabDetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TDissRefrDetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TMethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TNH4_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TNO3_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TPO4_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TPOC_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TPON_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TPOP_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TSalinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TSedLabileDetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TSedRefrDetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TSilica_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TSulfide_Sediment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TSuspLabDetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TSuspRefrDetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TTemperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TToxics</t>
+  </si>
+  <si>
+    <r>
+      <t>Sulfide in sediment in g O2 equiv. / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> d</t>
+    </r>
+  </si>
+  <si>
+    <t>Nutrient Simulations</t>
+  </si>
+  <si>
+    <t>Nutrients, Chemicals</t>
+  </si>
+  <si>
+    <r>
+      <t>Ammonia in sediment in g N / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Methane in g O2 equiv. / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chemical oxygen demand in g O2 equiv. / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nitrate in sediment in g N / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Particulate Phosphate in sediment in g P / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Particulate Nitrogen in sediment in g N / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Total Soluble P in water in mg/L</t>
+  </si>
+  <si>
+    <t>pH of the water column</t>
+  </si>
+  <si>
+    <t>Oxygen in the water column in mg/L</t>
+  </si>
+  <si>
+    <t>Nutrate in the water column in mg N/L</t>
+  </si>
+  <si>
+    <r>
+      <t>Silica concentration in sediment in g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sedimented Refractory Detritus in g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sedimented Labile Detritus in g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Particulate Carbon in sediment in g C / m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Water column salinity in PPT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Chem., Nutr.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  State Variable in "SV" array</t>
+  </si>
+  <si>
+    <t>PointSource,  or Inflow(TVolume)</t>
+  </si>
+  <si>
+    <t>DirectPrecip, or Discharge(TVolume)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NonPointSource</t>
+  </si>
+  <si>
+    <t>H2OTox2..20 deprecated</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>concrete_channel,</t>
+  </si>
+  <si>
+    <t>dredged_channel,</t>
+  </si>
+  <si>
+    <t>natural_channel</t>
+  </si>
+  <si>
+    <t>Pond,</t>
+  </si>
+  <si>
+    <t>Stream,</t>
+  </si>
+  <si>
+    <t>Reservr1D,</t>
+  </si>
+  <si>
+    <t>Lake,</t>
+  </si>
+  <si>
+    <t>Enclosure,</t>
+  </si>
+  <si>
+    <t>Estuary,</t>
+  </si>
+  <si>
+    <t>TribInput,</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>H2OTox,</t>
+  </si>
+  <si>
+    <t>Ammonia,</t>
+  </si>
+  <si>
+    <t>Nitrate,</t>
+  </si>
+  <si>
+    <t>Phosphate,</t>
+  </si>
+  <si>
+    <t>CO2,</t>
+  </si>
+  <si>
+    <t>Oxygen,</t>
+  </si>
+  <si>
+    <t>PoreWater,</t>
+  </si>
+  <si>
+    <t>ReDOMPore,</t>
+  </si>
+  <si>
+    <t>LaDOMPore,</t>
+  </si>
+  <si>
+    <t>Sand,</t>
+  </si>
+  <si>
+    <t>Silt,</t>
+  </si>
+  <si>
+    <t>Clay,</t>
+  </si>
+  <si>
+    <t>TSS,</t>
+  </si>
+  <si>
+    <t>Silica,</t>
+  </si>
+  <si>
+    <t>Avail_Silica,</t>
+  </si>
+  <si>
+    <t>COD,</t>
+  </si>
+  <si>
+    <t>TAM,</t>
+  </si>
+  <si>
+    <t>Methane,</t>
+  </si>
+  <si>
+    <t>Sulfide,</t>
+  </si>
+  <si>
+    <t>POC_G1,</t>
+  </si>
+  <si>
+    <t>POC_G2,</t>
+  </si>
+  <si>
+    <t>POC_G3,</t>
+  </si>
+  <si>
+    <t>PON_G1,</t>
+  </si>
+  <si>
+    <t>PON_G2,</t>
+  </si>
+  <si>
+    <t>PON_G3,</t>
+  </si>
+  <si>
+    <t>POP_G1,</t>
+  </si>
+  <si>
+    <t>POP_G2,</t>
+  </si>
+  <si>
+    <t>POP_G3,</t>
+  </si>
+  <si>
+    <t>Cohesives,</t>
+  </si>
+  <si>
+    <t>NonCohesives,</t>
+  </si>
+  <si>
+    <t>NonCohesives2,</t>
+  </si>
+  <si>
+    <t>Salinity,</t>
+  </si>
+  <si>
+    <t>SedmRefrDetr,</t>
+  </si>
+  <si>
+    <t>SedmLabDetr,</t>
+  </si>
+  <si>
+    <t>DissRefrDetr,</t>
+  </si>
+  <si>
+    <t>DissLabDetr,</t>
+  </si>
+  <si>
+    <t>SuspRefrDetr,</t>
+  </si>
+  <si>
+    <t>SuspLabDetr,</t>
+  </si>
+  <si>
+    <t>BuriedRefrDetr,</t>
+  </si>
+  <si>
+    <t>BuriedLabileDetr,</t>
+  </si>
+  <si>
+    <t>Diatoms1,</t>
+  </si>
+  <si>
+    <t>Diatoms2,</t>
+  </si>
+  <si>
+    <t>Diatoms3,</t>
+  </si>
+  <si>
+    <t>Diatoms4,</t>
+  </si>
+  <si>
+    <t>Diatoms5,</t>
+  </si>
+  <si>
+    <t>Diatoms6,</t>
+  </si>
+  <si>
+    <t>Greens1,</t>
+  </si>
+  <si>
+    <t>Greens2,</t>
+  </si>
+  <si>
+    <t>Greens3,</t>
+  </si>
+  <si>
+    <t>Greens4,</t>
+  </si>
+  <si>
+    <t>Greens5,</t>
+  </si>
+  <si>
+    <t>Greens6,</t>
+  </si>
+  <si>
+    <t>BlGreens1,</t>
+  </si>
+  <si>
+    <t>BlGreens2,</t>
+  </si>
+  <si>
+    <t>BlGreens3,</t>
+  </si>
+  <si>
+    <t>BlGreens4,</t>
+  </si>
+  <si>
+    <t>BlGreens5,</t>
+  </si>
+  <si>
+    <t>BlGreens6,</t>
+  </si>
+  <si>
+    <t>OtherAlg1,</t>
+  </si>
+  <si>
+    <t>OtherAlg2,</t>
+  </si>
+  <si>
+    <t>Macrophytes1,</t>
+  </si>
+  <si>
+    <t>Macrophytes2,</t>
+  </si>
+  <si>
+    <t>Macrophytes3,</t>
+  </si>
+  <si>
+    <t>Macrophytes4,</t>
+  </si>
+  <si>
+    <t>Macrophytes5,</t>
+  </si>
+  <si>
+    <t>Macrophytes6,</t>
+  </si>
+  <si>
+    <t>SuspFeeder1,</t>
+  </si>
+  <si>
+    <t>SuspFeeder2,</t>
+  </si>
+  <si>
+    <t>SuspFeeder3,</t>
+  </si>
+  <si>
+    <t>SuspFeeder4,</t>
+  </si>
+  <si>
+    <t>SuspFeeder5,</t>
+  </si>
+  <si>
+    <t>SuspFeeder6,</t>
+  </si>
+  <si>
+    <t>SuspFeeder7,</t>
+  </si>
+  <si>
+    <t>SuspFeeder8,</t>
+  </si>
+  <si>
+    <t>SuspFeeder9,</t>
+  </si>
+  <si>
+    <t>DepFeeder1,</t>
+  </si>
+  <si>
+    <t>DepFeeder2,</t>
+  </si>
+  <si>
+    <t>DepFeeder3,</t>
+  </si>
+  <si>
+    <t>Veliger1,</t>
+  </si>
+  <si>
+    <t>Veliger2,</t>
+  </si>
+  <si>
+    <t>Spat1,</t>
+  </si>
+  <si>
+    <t>Spat2,</t>
+  </si>
+  <si>
+    <t>Clams1,</t>
+  </si>
+  <si>
+    <t>Clams2,</t>
+  </si>
+  <si>
+    <t>Clams3,</t>
+  </si>
+  <si>
+    <t>Clams4,</t>
+  </si>
+  <si>
+    <t>Snail1,</t>
+  </si>
+  <si>
+    <t>Snail2,</t>
+  </si>
+  <si>
+    <t>SmallPI1,</t>
+  </si>
+  <si>
+    <t>SmallPI2,</t>
+  </si>
+  <si>
+    <t>PredInvt1,</t>
+  </si>
+  <si>
+    <t>PredInvt2,</t>
+  </si>
+  <si>
+    <t>PredInvt3,</t>
+  </si>
+  <si>
+    <t>PredInvt4,</t>
+  </si>
+  <si>
+    <t>SmForageFish1,</t>
+  </si>
+  <si>
+    <t>SmForageFish2,</t>
+  </si>
+  <si>
+    <t>LgForageFish1,</t>
+  </si>
+  <si>
+    <t>LgForageFish2,</t>
+  </si>
+  <si>
+    <t>SmBottomFish1,</t>
+  </si>
+  <si>
+    <t>SmBottomFish2,</t>
+  </si>
+  <si>
+    <t>LgBottomFish1,</t>
+  </si>
+  <si>
+    <t>LgBottomFish2,</t>
+  </si>
+  <si>
+    <t>SmGameFish1,</t>
+  </si>
+  <si>
+    <t>SmGameFish2,</t>
+  </si>
+  <si>
+    <t>SmGameFish3,</t>
+  </si>
+  <si>
+    <t>SmGameFish4,</t>
+  </si>
+  <si>
+    <t>LgGameFish1,</t>
+  </si>
+  <si>
+    <t>LgGameFish2,</t>
+  </si>
+  <si>
+    <t>LgGameFish3,</t>
+  </si>
+  <si>
+    <t>LgGameFish4,</t>
+  </si>
+  <si>
+    <t>Fish1,</t>
+  </si>
+  <si>
+    <t>Fish2,</t>
+  </si>
+  <si>
+    <t>Fish3,</t>
+  </si>
+  <si>
+    <t>Fish4,</t>
+  </si>
+  <si>
+    <t>Fish5,</t>
+  </si>
+  <si>
+    <t>Fish6,</t>
+  </si>
+  <si>
+    <t>Fish7,</t>
+  </si>
+  <si>
+    <t>Fish8,</t>
+  </si>
+  <si>
+    <t>Fish9,</t>
+  </si>
+  <si>
+    <t>Fish10,</t>
+  </si>
+  <si>
+    <t>Fish11,</t>
+  </si>
+  <si>
+    <t>Fish12,</t>
+  </si>
+  <si>
+    <t>Fish13,</t>
+  </si>
+  <si>
+    <t>Fish14,</t>
+  </si>
+  <si>
+    <t>Fish15,</t>
+  </si>
+  <si>
+    <t>Volume,</t>
+  </si>
+  <si>
+    <t>Temperature,</t>
+  </si>
+  <si>
+    <t>WindLoading,</t>
+  </si>
+  <si>
+    <t>Light,</t>
+  </si>
+  <si>
+    <t>pH,</t>
+  </si>
+  <si>
+    <t>NullStateVar</t>
+  </si>
+  <si>
+    <t>StV,</t>
+  </si>
+  <si>
+    <t>Porewaters,</t>
+  </si>
+  <si>
+    <t>OrgTox1,</t>
+  </si>
+  <si>
+    <t>OrgTox2,</t>
+  </si>
+  <si>
+    <t>OrgTox3,</t>
+  </si>
+  <si>
+    <t>OrgTox4,</t>
+  </si>
+  <si>
+    <t>OrgTox5,</t>
+  </si>
+  <si>
+    <t>OrgTox6,</t>
+  </si>
+  <si>
+    <t>OrgTox7,</t>
+  </si>
+  <si>
+    <t>OrgTox8,</t>
+  </si>
+  <si>
+    <t>OrgTox9,</t>
+  </si>
+  <si>
+    <t>OrgTox10,</t>
+  </si>
+  <si>
+    <t>OrgTox11,</t>
+  </si>
+  <si>
+    <t>OrgTox12,</t>
+  </si>
+  <si>
+    <t>OrgTox13,</t>
+  </si>
+  <si>
+    <t>OrgTox14,</t>
+  </si>
+  <si>
+    <t>OrgTox15,</t>
+  </si>
+  <si>
+    <t>OrgTox16,</t>
+  </si>
+  <si>
+    <t>OrgTox17,</t>
+  </si>
+  <si>
+    <t>OrgTox18,</t>
+  </si>
+  <si>
+    <t>OrgTox19,</t>
+  </si>
+  <si>
+    <t>OrgTox20,</t>
+  </si>
+  <si>
+    <t>NTrack,</t>
+  </si>
+  <si>
+    <t>PTrack</t>
+  </si>
+  <si>
+    <t>WaterCol,</t>
+  </si>
+  <si>
+    <t>SedLayer1,</t>
+  </si>
+  <si>
+    <t>SedLayer2,</t>
+  </si>
+  <si>
+    <t>Manning,</t>
+  </si>
+  <si>
+    <t>KeepConst,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynam, </t>
+  </si>
+  <si>
+    <t>KnownVal</t>
+  </si>
+  <si>
+    <t>StreamTypes</t>
+  </si>
+  <si>
+    <t>SiteTypes</t>
+  </si>
+  <si>
+    <t>T_SVType</t>
+  </si>
+  <si>
+    <t>T_SVLayer</t>
+  </si>
+  <si>
+    <t>VolumeMethType</t>
+  </si>
+  <si>
+    <t>AllVariables</t>
+  </si>
+  <si>
+    <t>Alt_LoadingsType Integer</t>
+  </si>
+  <si>
+    <t>Alkalinity</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>If pH is estimated, ueq CACO3/L</t>
+  </si>
+  <si>
+    <t>CalculatePhotoperiod</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>UserPhotoPeriod</t>
+  </si>
+  <si>
+    <t>hours of light in day</t>
+  </si>
+  <si>
+    <t>calculate photo period from latitude</t>
+  </si>
+  <si>
+    <t>MeanValue</t>
+  </si>
+  <si>
+    <t>mean wind if fourier series is used</t>
+  </si>
+  <si>
+    <t>ChemRec</t>
+  </si>
+  <si>
+    <t>ChemicalRecord</t>
+  </si>
+  <si>
+    <t>Relevant Chemical Parameters see ChemicalRecord_Specs.docx</t>
+  </si>
+  <si>
+    <t>JSON _Link loadings</t>
+  </si>
+  <si>
+    <t>TLoadings</t>
+  </si>
+  <si>
+    <t>Six optional linkage timeseries if chemicals sorbed to plants, animals, or OM not modeled</t>
+  </si>
+  <si>
+    <t>TPON_Sediment, TPOC_Sediment, TPOP_Sediment</t>
+  </si>
+  <si>
+    <t>Two optional linkage time series for each state variable to estimate deposition and predation if plants, animals, or OM not modeled</t>
+  </si>
+  <si>
+    <t>State Variable Type</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>Calc_Method</t>
+  </si>
+  <si>
+    <t>VolumeMethType (enum)</t>
+  </si>
+  <si>
+    <t>Whether to use Manning's coefficient and river flows to estimate segment volume, to keep volume constant, to calculate volume "dynamically" using inflows, outflows, and evaporation, or to set segment volume to a known value or time series of values</t>
+  </si>
+  <si>
+    <t>JSON_Link loadings</t>
+  </si>
+  <si>
+    <t>Five optional linkage time series if animals, plants, and/or organic matter are not included to represent rates of assimilation, remineralization, and calcite precipitation</t>
+  </si>
+  <si>
+    <t>TP_IC, TP_Inflow, TP_PS, TP_NPS</t>
+  </si>
+  <si>
+    <t>Are PO4 inputs in the form of TP or Total Soluble P.  If the former, TSP is estimated based on inflow P loadings in OM and algae</t>
+  </si>
+  <si>
+    <t>Four optional linkage time series if animals, plants, and/or organic matter are not included to represent rates of assimilation and remineralization</t>
+  </si>
+  <si>
+    <t>JSON_Link loading</t>
+  </si>
+  <si>
+    <t>One optional linkage time series if plants are not explicitly modeled to represent rates of assimilation</t>
+  </si>
+  <si>
+    <t>TN_IC, TN_Inflow, TNP_PS, TP_NPS</t>
+  </si>
+  <si>
+    <t>Are NO3 inputs in the form of TN?  If so, NO3 is estimated based on inflow N loadings in OM and algae</t>
+  </si>
+  <si>
+    <t>Three optional linkage time series if animals, plants, and/or organic matter are not included to represent rates of assimilation, respiration, and decomposition.</t>
+  </si>
+  <si>
+    <t>ImportCO2Equil and CO2Equil</t>
+  </si>
+  <si>
+    <t>bool and TLoadings</t>
+  </si>
+  <si>
+    <t>The equilibrium concentration of CO2 in water can be user input using these variables or estimated using AQUATOX equations (213) to (215)</t>
+  </si>
+  <si>
+    <t>Five optional linkage time series if animals, plants, and/or organic matter are not included to represent rates of photosynthesis, respiration, nitrification, CBOD, and Sediment Oxygen Demand.</t>
+  </si>
+  <si>
+    <t>NoLoadOrWash</t>
+  </si>
+  <si>
+    <t>An experimental variable that allows the user to calculate the oxygen concentration in the water if inflow loadings and washout were not considered.</t>
+  </si>
+  <si>
+    <t>TDetritus</t>
+  </si>
+  <si>
+    <t>Four optional linkage time series if animals, and/or plants are not included to represent rates of detrital formation, excretion, sedimentation, and gameteloss.</t>
+  </si>
+  <si>
+    <t>TSuspendedDetr and TSedimentedDetr</t>
+  </si>
+  <si>
+    <t>Optional linkage time series for predation of suspended or sedimented detritus by animals, if animals are not modeled.</t>
+  </si>
+  <si>
+    <t>InputRecord</t>
+  </si>
+  <si>
+    <t>Specialized structure that includes loadings data for all suspended and dissolved organic matter and allows for input as CBOD, OC, or OM, for example.  This supercedes individual loading inputs for each of the four suspended and dissolved organic matter state variables.</t>
+  </si>
+  <si>
+    <t>DetritalInputRecord
+Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +1606,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +1644,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -220,18 +1659,181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -305,6 +1907,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -601,31 +2206,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -638,543 +2315,3051 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
+    <row r="10" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="29" t="s">
         <v>22</v>
       </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="28" t="s">
         <v>22</v>
       </c>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="29" t="s">
         <v>37</v>
       </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="29" t="s">
         <v>49</v>
       </c>
+      <c r="C57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:C47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C191"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="33"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="33">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="33">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="33">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" s="33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="33">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="33">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="33">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="33">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" s="33">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="33">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" s="33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" s="33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="33">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="33">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" s="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" s="33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" s="33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" s="33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="33">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" s="33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="33">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" s="33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" s="33">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="33">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="33">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="33">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="33">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="33">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="33">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" s="33">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C110" s="33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="33">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C112" s="33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" s="33">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" s="33">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" s="33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" s="33">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C117" s="33">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C118" s="33">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" s="33">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C120" s="33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" s="33">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C122" s="33">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C123" s="33">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124" s="33">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" s="33">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C126" s="33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C127" s="33">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C128" s="33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C129" s="33">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C130" s="33">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="33">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C132" s="33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C133" s="33">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" s="33">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C135" s="33">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C136" s="33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" s="33">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C138" s="33">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C139" s="33">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" s="33">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C142" s="33">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C143" s="33">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C144" s="33">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C145" s="33">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C146" s="33">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C147" s="33">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C148" s="33">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" s="33">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="33"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C152" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C153" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C154" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C156" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C157" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C158" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C159" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C160" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C161" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C162" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C163" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C165" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C166" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C167" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C168" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C169" s="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C170" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C171" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C172" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C173" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C177" s="33"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C178" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C179" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C180" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C182" s="33"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C183" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C184" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C186" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C188" s="33"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C189" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191" s="33">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="5" max="7" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>